--- a/biology/Zoologie/Albatros_royal/Albatros_royal.xlsx
+++ b/biology/Zoologie/Albatros_royal/Albatros_royal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diomedea epomophora
-L'Albatros royal (Diomedea epomophora)[1] était autrefois considéré comme appartenant à une sous-espèce de l'Albatros de Sanford. Les deux espèces se distinguent par le plumage des ailes. Chez l'Albatros de Sanford, le dessus des ailes demeure noir quel que soit l'âge, tandis que chez l'Albatros royal, le dessus des ailes, qui est noir chez l'immature, s’éclaircit progressivement avec l'âge, jusqu'à devenir totalement blanc à l'exception des extrémités[2]. En revanche, le dessous des ailes est identique chez ces deux espèces : majoritairement blanc, à l'exception des extrémités noires et d'un fin liseré noir sur le bord de fuite [3].
+L'Albatros royal (Diomedea epomophora) était autrefois considéré comme appartenant à une sous-espèce de l'Albatros de Sanford. Les deux espèces se distinguent par le plumage des ailes. Chez l'Albatros de Sanford, le dessus des ailes demeure noir quel que soit l'âge, tandis que chez l'Albatros royal, le dessus des ailes, qui est noir chez l'immature, s’éclaircit progressivement avec l'âge, jusqu'à devenir totalement blanc à l'exception des extrémités. En revanche, le dessous des ailes est identique chez ces deux espèces : majoritairement blanc, à l'exception des extrémités noires et d'un fin liseré noir sur le bord de fuite .
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Albatros royal pèse entre 6,5 et 10,3 kg pour une envergure de 2,9 à 3,5 m. Le dos est blanchâtre. Le dessus des ailes présente sensiblement la même coloration, mais est parsemé de taches sombres à l'exception de la bordure antérieure blanc pur. Les femelles, un peu plus petites, ont un blanc un peu moins pur[2]. Le bec est blanc rosé avec la mandibule supérieure bordée d'une ligne noire[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Albatros royal pèse entre 6,5 et 10,3 kg pour une envergure de 2,9 à 3,5 m. Le dos est blanchâtre. Le dessus des ailes présente sensiblement la même coloration, mais est parsemé de taches sombres à l'exception de la bordure antérieure blanc pur. Les femelles, un peu plus petites, ont un blanc un peu moins pur. Le bec est blanc rosé avec la mandibule supérieure bordée d'une ligne noire.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La principale colonie de cette espèce se rencontre sur l'île Campbell au sud de la Nouvelle-Zélande, la population comprend environ 15 000 couples. Une petite colonie s'est installée à Taiaroe Head, à l'extrémité de la Péninsule d'Otago, près de Dunedin depuis 1919, l'envol du premier poussin ayant eu lieu en 1938. Elle compte aujourd'hui une centaine d'individus[6], donnant naissance chaque année à une dizaine de poussins.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La principale colonie de cette espèce se rencontre sur l'île Campbell au sud de la Nouvelle-Zélande, la population comprend environ 15 000 couples. Une petite colonie s'est installée à Taiaroe Head, à l'extrémité de la Péninsule d'Otago, près de Dunedin depuis 1919, l'envol du premier poussin ayant eu lieu en 1938. Elle compte aujourd'hui une centaine d'individus, donnant naissance chaque année à une dizaine de poussins.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Nourriture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit principalement de céphalopodes et de poissons de surface[7]. L'Albatros royal est moins enclin à suivre les navires que l'Albatros hurleur[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit principalement de céphalopodes et de poissons de surface. L'Albatros royal est moins enclin à suivre les navires que l'Albatros hurleur.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il niche tous les deux ans à partir de l'âge de 8-9 ans. Un seul œuf est pondu fin octobre dans un nid fait d'herbe et de petites mottes de terre. Les deux parents couvent par périodes de 4-8 jours. L'incubation dure 11 semaines et les poussins quittent le nid quand ils ont 36 à 37 semaines[7]. Leur durée de vie est d'environ 45 ans[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il niche tous les deux ans à partir de l'âge de 8-9 ans. Un seul œuf est pondu fin octobre dans un nid fait d'herbe et de petites mottes de terre. Les deux parents couvent par périodes de 4-8 jours. L'incubation dure 11 semaines et les poussins quittent le nid quand ils ont 36 à 37 semaines. Leur durée de vie est d'environ 45 ans.
 </t>
         </is>
       </c>
